--- a/VersionRecords/Version TP/版本Bug和特性计划及评审表vTP——捷豹.xlsx
+++ b/VersionRecords/Version TP/版本Bug和特性计划及评审表vTP——捷豹.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version TP/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="813"/>
+    <workbookView xWindow="35500" yWindow="2200" windowWidth="25600" windowHeight="14600" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -953,7 +948,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1016,18 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1347,6 +1354,33 @@
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1374,36 +1408,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="29">
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -1420,14 +1426,19 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="个性色4" xfId="8" builtinId="41"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1799,11 +1810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="32" customWidth="1"/>
@@ -1829,7 +1840,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="28">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1946,7 +1957,7 @@
       <c r="U2" s="50"/>
       <c r="V2" s="51"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16">
       <c r="A3" s="80">
         <v>2</v>
       </c>
@@ -1998,7 +2009,7 @@
       <c r="U3" s="52"/>
       <c r="V3" s="51"/>
     </row>
-    <row r="4" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="23.25" customHeight="1">
       <c r="A4" s="80"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -2021,7 +2032,7 @@
       <c r="T4" s="44"/>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="80"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -2044,7 +2055,7 @@
       <c r="T5" s="44"/>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="20.25" customHeight="1">
       <c r="A6" s="80"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -2067,7 +2078,7 @@
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="99" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="99" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -2091,7 +2102,7 @@
       <c r="U7" s="97"/>
       <c r="V7" s="98"/>
     </row>
-    <row r="8" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="21.75" customHeight="1">
       <c r="A8" s="80"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -2114,7 +2125,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="80"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -2137,7 +2148,7 @@
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="80"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -2161,7 +2172,7 @@
       <c r="U10" s="104"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A11" s="80"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -2185,7 +2196,7 @@
       <c r="U11" s="105"/>
       <c r="V11" s="51"/>
     </row>
-    <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -2208,7 +2219,7 @@
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="15">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -2231,7 +2242,7 @@
       <c r="T13" s="44"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -2254,7 +2265,7 @@
       <c r="T14" s="44"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -2278,7 +2289,7 @@
       <c r="U15" s="78"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
@@ -2302,7 +2313,7 @@
       <c r="U16" s="78"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2326,7 +2337,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2350,7 +2361,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -2374,7 +2385,7 @@
       <c r="U19" s="78"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" s="31" customFormat="1" ht="15">
       <c r="A20" s="73"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -2398,7 +2409,7 @@
       <c r="U20" s="78"/>
       <c r="V20" s="51"/>
     </row>
-    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2421,7 +2432,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2444,7 +2455,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="52"/>
     </row>
-    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2467,7 +2478,7 @@
       <c r="T23" s="54"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2490,7 +2501,7 @@
       <c r="T24" s="56"/>
       <c r="U24" s="55"/>
     </row>
-    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2513,7 +2524,7 @@
       <c r="T25" s="57"/>
       <c r="U25" s="55"/>
     </row>
-    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2536,7 +2547,7 @@
       <c r="T26" s="56"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2559,7 +2570,7 @@
       <c r="T27" s="56"/>
       <c r="U27" s="55"/>
     </row>
-    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2582,7 +2593,7 @@
       <c r="T28" s="53"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2605,7 +2616,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
     </row>
-    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2628,7 +2639,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2651,7 +2662,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="52"/>
     </row>
-    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2674,7 +2685,7 @@
       <c r="T32" s="56"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2697,7 +2708,7 @@
       <c r="T33" s="44"/>
       <c r="U33" s="50"/>
     </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2720,7 +2731,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
     </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2743,7 +2754,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2766,7 +2777,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2789,7 +2800,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2812,7 +2823,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2835,7 +2846,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2858,7 +2869,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2881,7 +2892,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2904,7 +2915,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2927,7 +2938,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2950,7 +2961,7 @@
       <c r="T44" s="53"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2973,7 +2984,7 @@
       <c r="T45" s="53"/>
       <c r="U45" s="52"/>
     </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2996,7 +3007,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3019,7 +3030,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3042,7 +3053,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3065,7 +3076,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3088,7 +3099,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3111,7 +3122,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -3134,7 +3145,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3157,7 +3168,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3180,7 +3191,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3203,7 +3214,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3226,7 +3237,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3249,7 +3260,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3272,7 +3283,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3295,7 +3306,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3318,7 +3329,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3341,7 +3352,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3364,7 +3375,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3387,7 +3398,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3410,7 +3421,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3433,7 +3444,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3456,7 +3467,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3479,7 +3490,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3502,7 +3513,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3525,7 +3536,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3548,7 +3559,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3571,7 +3582,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3594,7 +3605,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3617,7 +3628,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3640,7 +3651,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3663,7 +3674,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3686,7 +3697,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3709,7 +3720,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3732,7 +3743,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3755,7 +3766,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3778,7 +3789,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3801,7 +3812,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3824,7 +3835,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3847,7 +3858,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3870,7 +3881,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3893,7 +3904,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3916,7 +3927,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3939,7 +3950,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3962,7 +3973,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3985,7 +3996,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4008,7 +4019,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4031,7 +4042,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4054,7 +4065,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4077,7 +4088,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4100,7 +4111,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4123,7 +4134,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4146,7 +4157,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4169,7 +4180,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4192,7 +4203,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4215,7 +4226,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4238,7 +4249,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4261,7 +4272,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4284,7 +4295,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4307,7 +4318,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4330,7 +4341,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4353,7 +4364,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4376,7 +4387,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4399,7 +4410,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4422,7 +4433,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4445,7 +4456,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4468,7 +4479,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4491,7 +4502,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4514,7 +4525,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4537,7 +4548,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4560,7 +4571,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4583,7 +4594,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4606,7 +4617,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4629,7 +4640,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4652,7 +4663,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4675,7 +4686,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4698,7 +4709,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4721,7 +4732,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4744,7 +4755,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4767,7 +4778,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4790,7 +4801,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4813,7 +4824,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4836,7 +4847,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4859,7 +4870,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4882,7 +4893,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4905,7 +4916,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4928,7 +4939,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4951,7 +4962,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4974,7 +4985,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4997,7 +5008,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5020,7 +5031,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5040,7 +5051,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5060,7 +5071,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5080,7 +5091,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5100,7 +5111,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5120,7 +5131,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5140,7 +5151,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5160,7 +5171,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5180,7 +5191,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5200,7 +5211,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5220,7 +5231,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5240,7 +5251,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5260,7 +5271,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5280,7 +5291,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5300,7 +5311,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5320,7 +5331,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5340,7 +5351,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5360,7 +5371,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5380,7 +5391,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5400,7 +5411,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5420,7 +5431,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5440,7 +5451,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5460,7 +5471,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5480,7 +5491,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5500,7 +5511,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5520,7 +5531,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5540,7 +5551,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5560,7 +5571,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5580,7 +5591,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5600,7 +5611,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5620,7 +5631,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5640,7 +5651,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5660,7 +5671,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5680,7 +5691,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5700,7 +5711,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5747,6 +5758,11 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5755,10 +5771,10 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
@@ -5767,7 +5783,7 @@
     <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.1640625" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.83203125" bestFit="1" customWidth="1"/>
@@ -5778,7 +5794,7 @@
     <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="58" t="s">
         <v>53</v>
       </c>
@@ -5834,59 +5850,59 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="117" t="s">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="113" t="s">
         <v>86</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="114" t="s">
         <v>88</v>
       </c>
       <c r="K2" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="123" t="s">
+      <c r="L2" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="123" t="s">
+      <c r="M2" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="123" t="s">
+      <c r="N2" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="124" t="s">
+      <c r="O2" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="125" t="s">
+      <c r="P2" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="124" t="s">
+      <c r="Q2" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="124"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R2" s="115"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -5906,7 +5922,7 @@
       <c r="Q3" s="71"/>
       <c r="R3" s="71"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -5929,6 +5945,12 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5940,7 +5962,7 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
@@ -5952,22 +5974,22 @@
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -6002,9 +6024,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6015,9 +6037,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6028,9 +6050,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6041,9 +6063,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6054,9 +6076,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6067,9 +6089,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6080,9 +6102,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6093,9 +6115,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6106,7 +6128,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6129,6 +6151,11 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6140,7 +6167,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
@@ -6155,39 +6182,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6228,7 +6255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6243,7 +6270,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6258,7 +6285,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6273,7 +6300,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6288,7 +6315,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6303,7 +6330,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6318,7 +6345,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6333,7 +6360,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6348,7 +6375,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6363,7 +6390,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6378,7 +6405,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6393,7 +6420,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6408,7 +6435,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6443,6 +6470,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6454,7 +6486,7 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
@@ -6469,39 +6501,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6542,7 +6574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6557,7 +6589,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A5" s="88"/>
       <c r="B5" s="88"/>
       <c r="C5" s="88"/>
@@ -6572,7 +6604,7 @@
       <c r="L5" s="88"/>
       <c r="M5" s="89"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="88"/>
@@ -6587,7 +6619,7 @@
       <c r="L6" s="88"/>
       <c r="M6" s="89"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6602,7 +6634,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6617,7 +6649,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6632,7 +6664,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6647,7 +6679,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6662,7 +6694,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6677,7 +6709,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6692,7 +6724,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6707,7 +6739,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6722,7 +6754,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6757,6 +6789,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6768,7 +6805,7 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
@@ -6783,39 +6820,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6856,7 +6893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6871,7 +6908,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A5" s="88"/>
       <c r="B5" s="88"/>
       <c r="C5" s="88"/>
@@ -6886,7 +6923,7 @@
       <c r="L5" s="88"/>
       <c r="M5" s="89"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="88"/>
@@ -6901,7 +6938,7 @@
       <c r="L6" s="88"/>
       <c r="M6" s="89"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6916,7 +6953,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6931,7 +6968,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6946,7 +6983,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6961,7 +6998,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6976,7 +7013,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6991,7 +7028,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7006,7 +7043,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7021,7 +7058,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7036,7 +7073,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7071,6 +7108,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7082,7 +7124,7 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
@@ -7099,39 +7141,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7172,7 +7214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7187,7 +7229,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A5" s="88"/>
       <c r="B5" s="88"/>
       <c r="C5" s="88"/>
@@ -7202,7 +7244,7 @@
       <c r="L5" s="88"/>
       <c r="M5" s="89"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="91" customFormat="1" ht="15">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="88"/>
@@ -7217,7 +7259,7 @@
       <c r="L6" s="88"/>
       <c r="M6" s="89"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7232,7 +7274,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7247,7 +7289,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7262,7 +7304,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7277,7 +7319,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7292,7 +7334,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7307,7 +7349,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7322,7 +7364,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7337,7 +7379,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7352,7 +7394,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7387,6 +7429,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7398,7 +7445,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.1640625" customWidth="1"/>
@@ -7409,7 +7456,7 @@
     <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -7435,7 +7482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7445,7 +7492,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7455,7 +7502,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7465,7 +7512,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7475,7 +7522,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7485,7 +7532,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7495,7 +7542,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7505,7 +7552,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7515,7 +7562,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7525,7 +7572,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7535,7 +7582,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7545,7 +7592,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7555,7 +7602,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7565,7 +7612,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7575,7 +7622,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7585,7 +7632,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7595,7 +7642,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7605,7 +7652,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7623,5 +7670,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>